--- a/data/pca/factorExposure/factorExposure_2016-06-29.xlsx
+++ b/data/pca/factorExposure/factorExposure_2016-06-29.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,15 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +714,88 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>-0.0105568951164137</v>
+        <v>0.01273332635429691</v>
       </c>
       <c r="C2">
-        <v>0.05047323015050494</v>
+        <v>0.04098812709911889</v>
       </c>
       <c r="D2">
-        <v>-0.03626126023500134</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.06246042187329257</v>
+      </c>
+      <c r="E2">
+        <v>0.07218185978784453</v>
+      </c>
+      <c r="F2">
+        <v>0.05881519676437304</v>
+      </c>
+      <c r="G2">
+        <v>-0.03982289049999102</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>-0.04353601648523367</v>
+        <v>0.02859100683651116</v>
       </c>
       <c r="C3">
-        <v>0.1207170218982106</v>
+        <v>0.07899537093747486</v>
       </c>
       <c r="D3">
-        <v>-0.09904542769837865</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>0.08938997395418512</v>
+      </c>
+      <c r="E3">
+        <v>0.06652905107951686</v>
+      </c>
+      <c r="F3">
+        <v>-0.02193287851739399</v>
+      </c>
+      <c r="G3">
+        <v>0.03280483481962385</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>-0.0604782916420361</v>
+        <v>0.05766517408337804</v>
       </c>
       <c r="C4">
-        <v>0.06032605770937907</v>
+        <v>0.06419252920087308</v>
       </c>
       <c r="D4">
-        <v>-0.03353761597215305</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>0.06071206223142022</v>
+      </c>
+      <c r="E4">
+        <v>0.07461295993963578</v>
+      </c>
+      <c r="F4">
+        <v>0.07250499119277952</v>
+      </c>
+      <c r="G4">
+        <v>0.03798267530489906</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +806,272 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>-0.03975509205330607</v>
+        <v>0.03552371921928319</v>
       </c>
       <c r="C6">
-        <v>0.03962573241962244</v>
+        <v>0.03159079510933487</v>
       </c>
       <c r="D6">
-        <v>-0.03023912227155119</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.0642961579639633</v>
+      </c>
+      <c r="E6">
+        <v>0.07684921244304127</v>
+      </c>
+      <c r="F6">
+        <v>0.04974405334630378</v>
+      </c>
+      <c r="G6">
+        <v>0.02322690356879516</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>-0.02137603554679371</v>
+        <v>0.01833175315278984</v>
       </c>
       <c r="C7">
-        <v>0.04487238399236077</v>
+        <v>0.03879111534970012</v>
       </c>
       <c r="D7">
-        <v>0.004031764263704747</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>0.03927276288578954</v>
+      </c>
+      <c r="E7">
+        <v>0.05373897359043782</v>
+      </c>
+      <c r="F7">
+        <v>0.09327305795716907</v>
+      </c>
+      <c r="G7">
+        <v>0.01163757512034013</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>-0.004268268844275332</v>
+        <v>0.003178538867380178</v>
       </c>
       <c r="C8">
-        <v>0.03163595544733626</v>
+        <v>0.03004464641170453</v>
       </c>
       <c r="D8">
-        <v>-0.02176198195376878</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>0.03218465449790335</v>
+      </c>
+      <c r="E8">
+        <v>0.05116257148374651</v>
+      </c>
+      <c r="F8">
+        <v>0.03040702706724622</v>
+      </c>
+      <c r="G8">
+        <v>0.008480672146725354</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>-0.03321998247934453</v>
+        <v>0.03678770641861633</v>
       </c>
       <c r="C9">
-        <v>0.04682096100991486</v>
+        <v>0.05145408217012373</v>
       </c>
       <c r="D9">
-        <v>-0.01668298675226845</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>0.04365124390732789</v>
+      </c>
+      <c r="E9">
+        <v>0.06289650182866385</v>
+      </c>
+      <c r="F9">
+        <v>0.07796152570371198</v>
+      </c>
+      <c r="G9">
+        <v>0.02438582561290153</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>-0.07919975989550933</v>
+        <v>0.100227637411311</v>
       </c>
       <c r="C10">
-        <v>-0.1924602299594728</v>
+        <v>-0.1965712050934116</v>
       </c>
       <c r="D10">
-        <v>0.003030850006919078</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>-0.003443560963673794</v>
+      </c>
+      <c r="E10">
+        <v>0.04670663203402658</v>
+      </c>
+      <c r="F10">
+        <v>0.03492023500932048</v>
+      </c>
+      <c r="G10">
+        <v>0.01074872199063884</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>-0.04055650825280957</v>
+        <v>0.03639059831444952</v>
       </c>
       <c r="C11">
-        <v>0.05551956636282071</v>
+        <v>0.050958471434061</v>
       </c>
       <c r="D11">
-        <v>-0.01702266593507</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>0.0350908370505415</v>
+      </c>
+      <c r="E11">
+        <v>0.02031992500171701</v>
+      </c>
+      <c r="F11">
+        <v>0.06293276326617371</v>
+      </c>
+      <c r="G11">
+        <v>0.01744447172918004</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>-0.04061532717079962</v>
+        <v>0.03765719300136186</v>
       </c>
       <c r="C12">
-        <v>0.04943439149261367</v>
+        <v>0.0474137361924384</v>
       </c>
       <c r="D12">
-        <v>-0.005043963027029163</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>0.02775405466535244</v>
+      </c>
+      <c r="E12">
+        <v>0.02760981644866217</v>
+      </c>
+      <c r="F12">
+        <v>0.06208017235549468</v>
+      </c>
+      <c r="G12">
+        <v>0.01445002032454767</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>-0.01390164319349367</v>
+        <v>0.01190901183265255</v>
       </c>
       <c r="C13">
-        <v>0.05634315246049507</v>
+        <v>0.04623233341237696</v>
       </c>
       <c r="D13">
-        <v>-0.01797178948717378</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>0.05800850221725729</v>
+      </c>
+      <c r="E13">
+        <v>0.08904544055020767</v>
+      </c>
+      <c r="F13">
+        <v>0.08593743840184373</v>
+      </c>
+      <c r="G13">
+        <v>0.02057661672736444</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>-0.006437130323932681</v>
+        <v>0.00455926452810344</v>
       </c>
       <c r="C14">
-        <v>0.03925249553459054</v>
+        <v>0.0338211572753735</v>
       </c>
       <c r="D14">
-        <v>0.01245835081810733</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>0.02559140377749186</v>
+      </c>
+      <c r="E14">
+        <v>0.04237917937150052</v>
+      </c>
+      <c r="F14">
+        <v>0.08742179063473615</v>
+      </c>
+      <c r="G14">
+        <v>-0.002204287819698901</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>-0.0002663777973231813</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>0.005064206747550592</v>
       </c>
       <c r="D15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>0.007104268849603791</v>
+      </c>
+      <c r="E15">
+        <v>0.002901721982933978</v>
+      </c>
+      <c r="F15">
+        <v>0.005634439252479699</v>
+      </c>
+      <c r="G15">
+        <v>-0.0001191054811435015</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>-0.0368550999334097</v>
+        <v>0.0342489326169823</v>
       </c>
       <c r="C16">
-        <v>0.04863216243750326</v>
+        <v>0.04578602972689128</v>
       </c>
       <c r="D16">
-        <v>-0.01062269361250567</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>0.02838379720453695</v>
+      </c>
+      <c r="E16">
+        <v>0.03413047094832123</v>
+      </c>
+      <c r="F16">
+        <v>0.0632230679475448</v>
+      </c>
+      <c r="G16">
+        <v>0.003065594638347538</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1082,19 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1105,203 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>-0.02118012788805673</v>
+        <v>0.01636620152900282</v>
       </c>
       <c r="C19">
-        <v>0.06720928613327429</v>
+        <v>0.05047699442934208</v>
       </c>
       <c r="D19">
-        <v>-0.08156911277344348</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>0.09208286599888615</v>
+      </c>
+      <c r="E19">
+        <v>0.09945804970555655</v>
+      </c>
+      <c r="F19">
+        <v>0.06277582968704205</v>
+      </c>
+      <c r="G19">
+        <v>-0.02552847249376706</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>-0.01642496565066343</v>
+        <v>0.01361167557579159</v>
       </c>
       <c r="C20">
-        <v>0.05024733219736204</v>
+        <v>0.04155103003352798</v>
       </c>
       <c r="D20">
-        <v>-0.01456831027090304</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>0.04026525035196416</v>
+      </c>
+      <c r="E20">
+        <v>0.07250456173179698</v>
+      </c>
+      <c r="F20">
+        <v>0.06991566264205704</v>
+      </c>
+      <c r="G20">
+        <v>0.007557809525141387</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>-0.01021109437049437</v>
+        <v>0.009419715637456239</v>
       </c>
       <c r="C21">
-        <v>0.05131713851415601</v>
+        <v>0.04442011297842147</v>
       </c>
       <c r="D21">
-        <v>-0.03715513857754651</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>0.06800735178134908</v>
+      </c>
+      <c r="E21">
+        <v>0.1087083404007886</v>
+      </c>
+      <c r="F21">
+        <v>0.1067751633832899</v>
+      </c>
+      <c r="G21">
+        <v>0.008568556914674877</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B22">
-        <v>0.0006063541040196165</v>
+        <v>0.002706058077875351</v>
       </c>
       <c r="C22">
-        <v>0.0009797835465288705</v>
+        <v>0.02421774690404555</v>
       </c>
       <c r="D22">
-        <v>-0.001493389642247585</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>0.04042438256980745</v>
+      </c>
+      <c r="E22">
+        <v>0.03208065065846414</v>
+      </c>
+      <c r="F22">
+        <v>0.008946869955924881</v>
+      </c>
+      <c r="G22">
+        <v>0.03946047368316396</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B23">
-        <v>0.0006118852992270005</v>
+        <v>0.002777660838499654</v>
       </c>
       <c r="C23">
-        <v>0.0009800712725122644</v>
+        <v>0.02436413194434903</v>
       </c>
       <c r="D23">
-        <v>-0.001500676888001878</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>0.04009148333893042</v>
+      </c>
+      <c r="E23">
+        <v>0.03235843809187471</v>
+      </c>
+      <c r="F23">
+        <v>0.008721999263940147</v>
+      </c>
+      <c r="G23">
+        <v>0.0396616047550778</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>-0.03322060980620276</v>
+        <v>0.03391315492004296</v>
       </c>
       <c r="C24">
-        <v>0.05081392447861489</v>
+        <v>0.05340928654478422</v>
       </c>
       <c r="D24">
-        <v>-0.01051847864938349</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>0.02815913881853073</v>
+      </c>
+      <c r="E24">
+        <v>0.0344555435280082</v>
+      </c>
+      <c r="F24">
+        <v>0.06946060098938446</v>
+      </c>
+      <c r="G24">
+        <v>0.0109852786702056</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>-0.04706593399938636</v>
+        <v>0.0439945240049093</v>
       </c>
       <c r="C25">
-        <v>0.06213961619435798</v>
+        <v>0.05753402607981772</v>
       </c>
       <c r="D25">
-        <v>-0.001975661885633925</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>0.02677964352308298</v>
+      </c>
+      <c r="E25">
+        <v>0.02710168925470861</v>
+      </c>
+      <c r="F25">
+        <v>0.07343886891884889</v>
+      </c>
+      <c r="G25">
+        <v>0.02827123593111307</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>-0.01501076080257523</v>
+        <v>0.01464614672790525</v>
       </c>
       <c r="C26">
-        <v>0.01924968851950944</v>
+        <v>0.01838804792161968</v>
       </c>
       <c r="D26">
-        <v>0.0003371884678270782</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>0.02518378780244476</v>
+      </c>
+      <c r="E26">
+        <v>0.04297081432263923</v>
+      </c>
+      <c r="F26">
+        <v>0.06316690736020152</v>
+      </c>
+      <c r="G26">
+        <v>-0.01091810375730429</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,108 +1312,180 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>-0.09552107679753832</v>
+        <v>0.1351155328786202</v>
       </c>
       <c r="C28">
-        <v>-0.2389608222177196</v>
+        <v>-0.2482139370159266</v>
       </c>
       <c r="D28">
-        <v>0.004624123154663213</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>-0.0177221347291262</v>
+      </c>
+      <c r="E28">
+        <v>0.06219971386183853</v>
+      </c>
+      <c r="F28">
+        <v>0.05285127220052187</v>
+      </c>
+      <c r="G28">
+        <v>0.02160924036863728</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>-0.006912074825049463</v>
+        <v>0.005998392871992796</v>
       </c>
       <c r="C29">
-        <v>0.03194835288081613</v>
+        <v>0.03000376629212959</v>
       </c>
       <c r="D29">
-        <v>0.01573428430238463</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>0.01978565891227582</v>
+      </c>
+      <c r="E29">
+        <v>0.04288140723556177</v>
+      </c>
+      <c r="F29">
+        <v>0.08166834024388413</v>
+      </c>
+      <c r="G29">
+        <v>0.01120418117676026</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>-0.04685104313491265</v>
+        <v>0.04197527379957405</v>
       </c>
       <c r="C30">
-        <v>0.0651329019547094</v>
+        <v>0.06415597274724247</v>
       </c>
       <c r="D30">
-        <v>-0.07823760938505134</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>0.1092784453894401</v>
+      </c>
+      <c r="E30">
+        <v>0.066416152621291</v>
+      </c>
+      <c r="F30">
+        <v>0.07919894676544083</v>
+      </c>
+      <c r="G30">
+        <v>-0.01202383210802663</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>-0.05383880253848142</v>
+        <v>0.05579474013078221</v>
       </c>
       <c r="C31">
-        <v>0.04057355202428833</v>
+        <v>0.05797415141110532</v>
       </c>
       <c r="D31">
-        <v>0.02828176082200299</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.01045958570310742</v>
+      </c>
+      <c r="E31">
+        <v>0.06578195745712431</v>
+      </c>
+      <c r="F31">
+        <v>0.06353762267430389</v>
+      </c>
+      <c r="G31">
+        <v>0.04929578608600852</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>0.001894498080105701</v>
+        <v>0.005138700940462554</v>
       </c>
       <c r="C32">
-        <v>0.03733736206237014</v>
+        <v>0.03235763521323462</v>
       </c>
       <c r="D32">
-        <v>-0.04285649654613666</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>0.05503691428011826</v>
+      </c>
+      <c r="E32">
+        <v>0.04662680221698632</v>
+      </c>
+      <c r="F32">
+        <v>0.06243681599729844</v>
+      </c>
+      <c r="G32">
+        <v>-0.008690061911578166</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>-0.02661750734135431</v>
+        <v>0.02407282937372935</v>
       </c>
       <c r="C33">
-        <v>0.06257150166499147</v>
+        <v>0.05568669403965752</v>
       </c>
       <c r="D33">
-        <v>-0.04745167158560634</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>0.08083828361778579</v>
+      </c>
+      <c r="E33">
+        <v>0.07773083162611746</v>
+      </c>
+      <c r="F33">
+        <v>0.1092982069254382</v>
+      </c>
+      <c r="G33">
+        <v>0.02334852055583721</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>-0.04543339292236126</v>
+        <v>0.04146566567112391</v>
       </c>
       <c r="C34">
-        <v>0.06551977085275179</v>
+        <v>0.06427671025265597</v>
       </c>
       <c r="D34">
-        <v>-0.01507037787249232</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>0.03583068486099467</v>
+      </c>
+      <c r="E34">
+        <v>0.007311314037984227</v>
+      </c>
+      <c r="F34">
+        <v>0.07543195698047286</v>
+      </c>
+      <c r="G34">
+        <v>0.01317958510905089</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1181,24 +1496,42 @@
       <c r="D35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>-0.01408393982959672</v>
+        <v>0.01355261225163152</v>
       </c>
       <c r="C36">
-        <v>0.01543134205726701</v>
+        <v>0.01302914943239548</v>
       </c>
       <c r="D36">
-        <v>0.001330004178284567</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>0.02732452797465153</v>
+      </c>
+      <c r="E36">
+        <v>0.05194332731349039</v>
+      </c>
+      <c r="F36">
+        <v>0.06773338455318563</v>
+      </c>
+      <c r="G36">
+        <v>0.0114471377401061</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,66 +1542,111 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>-0.03024935515744515</v>
+        <v>0.02407792098937972</v>
       </c>
       <c r="C38">
-        <v>0.03052326312341581</v>
+        <v>0.02425564326199461</v>
       </c>
       <c r="D38">
-        <v>0.006527538583021214</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>0.02770281375569733</v>
+      </c>
+      <c r="E38">
+        <v>0.0458896910966999</v>
+      </c>
+      <c r="F38">
+        <v>0.05587031450078511</v>
+      </c>
+      <c r="G38">
+        <v>0.003041089654732599</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>-0.04510425726805476</v>
+        <v>0.04038590757400612</v>
       </c>
       <c r="C39">
-        <v>0.07035692541734773</v>
+        <v>0.06767537308815649</v>
       </c>
       <c r="D39">
-        <v>-0.02335718968215128</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>0.05604298793819038</v>
+      </c>
+      <c r="E39">
+        <v>0.03951432406951439</v>
+      </c>
+      <c r="F39">
+        <v>0.08123734921892889</v>
+      </c>
+      <c r="G39">
+        <v>-0.01078127763848705</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>-0.01308672837040771</v>
+        <v>0.01362710104567222</v>
       </c>
       <c r="C40">
-        <v>0.05320737568229023</v>
+        <v>0.03977064269733338</v>
       </c>
       <c r="D40">
-        <v>-0.01787756535457533</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>0.03720469809772745</v>
+      </c>
+      <c r="E40">
+        <v>0.07753501095917451</v>
+      </c>
+      <c r="F40">
+        <v>0.06237841690101051</v>
+      </c>
+      <c r="G40">
+        <v>0.04028804175191852</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>-0.01971334260404088</v>
+        <v>0.01845292726194779</v>
       </c>
       <c r="C41">
-        <v>0.008111921309926374</v>
+        <v>0.008435594876302542</v>
       </c>
       <c r="D41">
-        <v>0.002291950498761992</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>0.015686410324259</v>
+      </c>
+      <c r="E41">
+        <v>0.05146013419193226</v>
+      </c>
+      <c r="F41">
+        <v>0.05833687321162898</v>
+      </c>
+      <c r="G41">
+        <v>0.004043755279907167</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1657,65 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>-0.03586330231791545</v>
+        <v>0.02838594566035235</v>
       </c>
       <c r="C43">
-        <v>0.02789513843344058</v>
+        <v>0.02269236966035595</v>
       </c>
       <c r="D43">
-        <v>-0.02258342687647</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>0.04152148976391015</v>
+      </c>
+      <c r="E43">
+        <v>0.06337457056032418</v>
+      </c>
+      <c r="F43">
+        <v>0.0650149712243225</v>
+      </c>
+      <c r="G43">
+        <v>0.02297954134741919</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>-0.01327621481626615</v>
+        <v>0.01417685995424915</v>
       </c>
       <c r="C44">
-        <v>0.06790862951117872</v>
+        <v>0.05178328495864766</v>
       </c>
       <c r="D44">
-        <v>-0.01208706325793542</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>0.04176062476297738</v>
+      </c>
+      <c r="E44">
+        <v>0.08348557319460938</v>
+      </c>
+      <c r="F44">
+        <v>0.06717282555833674</v>
+      </c>
+      <c r="G44">
+        <v>-0.005893000994833177</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1726,88 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>-0.005660946561654111</v>
+        <v>0.007890898515156107</v>
       </c>
       <c r="C46">
-        <v>0.02552388619094293</v>
+        <v>0.02794776778933583</v>
       </c>
       <c r="D46">
-        <v>0.01893695687895243</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>0.01254825805126367</v>
+      </c>
+      <c r="E46">
+        <v>0.05173830534268723</v>
+      </c>
+      <c r="F46">
+        <v>0.09454018144678017</v>
+      </c>
+      <c r="G46">
+        <v>0.003984809662868246</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>-0.08215268478253031</v>
+        <v>0.08773765613082549</v>
       </c>
       <c r="C47">
-        <v>0.0695035113967197</v>
+        <v>0.08002049473190481</v>
       </c>
       <c r="D47">
-        <v>0.02807177235805419</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.01552500948000579</v>
+      </c>
+      <c r="E47">
+        <v>0.06961651049452999</v>
+      </c>
+      <c r="F47">
+        <v>0.06889647263925142</v>
+      </c>
+      <c r="G47">
+        <v>0.05242158686279733</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>-0.01796184225230224</v>
+        <v>0.01589145802895096</v>
       </c>
       <c r="C48">
-        <v>0.01571009290601688</v>
+        <v>0.01748270681769963</v>
       </c>
       <c r="D48">
-        <v>0.01473915426497403</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>0.01720181187149917</v>
+      </c>
+      <c r="E48">
+        <v>0.06314631805362969</v>
+      </c>
+      <c r="F48">
+        <v>0.0839416244580465</v>
+      </c>
+      <c r="G48">
+        <v>0.0104468586896589</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +1818,65 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>-0.07894290631457831</v>
+        <v>0.07098598824082443</v>
       </c>
       <c r="C50">
-        <v>0.0753629634671571</v>
+        <v>0.07305116814870805</v>
       </c>
       <c r="D50">
-        <v>0.03041315209488245</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.002985920648575869</v>
+      </c>
+      <c r="E50">
+        <v>0.07216684433378548</v>
+      </c>
+      <c r="F50">
+        <v>0.04808676545931573</v>
+      </c>
+      <c r="G50">
+        <v>0.07123977957082188</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>-0.01528014442312357</v>
+        <v>0.01097732609659655</v>
       </c>
       <c r="C51">
-        <v>0.05196473726070128</v>
+        <v>0.03426729907582936</v>
       </c>
       <c r="D51">
-        <v>-0.02813586492799631</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>0.05045445881440584</v>
+      </c>
+      <c r="E51">
+        <v>0.04164181159509792</v>
+      </c>
+      <c r="F51">
+        <v>0.07070249615177672</v>
+      </c>
+      <c r="G51">
+        <v>-0.01887936117759006</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,136 +1887,226 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>-0.08014631024833158</v>
+        <v>0.09378248064763707</v>
       </c>
       <c r="C53">
-        <v>0.0787215029588761</v>
+        <v>0.0877635668180911</v>
       </c>
       <c r="D53">
-        <v>0.03988717627706215</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.0392310449327715</v>
+      </c>
+      <c r="E53">
+        <v>0.06830467429025434</v>
+      </c>
+      <c r="F53">
+        <v>0.0783352797525342</v>
+      </c>
+      <c r="G53">
+        <v>0.06596271310687567</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>-0.02994010760424198</v>
+        <v>0.02797518752921053</v>
       </c>
       <c r="C54">
-        <v>0.02917240462865991</v>
+        <v>0.02823868023993039</v>
       </c>
       <c r="D54">
-        <v>-0.004252595332026875</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>0.03141957567615473</v>
+      </c>
+      <c r="E54">
+        <v>0.05049012130142693</v>
+      </c>
+      <c r="F54">
+        <v>0.09225304554202542</v>
+      </c>
+      <c r="G54">
+        <v>0.01219449812101432</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>-0.07412929286098428</v>
+        <v>0.08531792257211275</v>
       </c>
       <c r="C55">
-        <v>0.05869114142953728</v>
+        <v>0.07027198032428515</v>
       </c>
       <c r="D55">
-        <v>0.04944227214049612</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.04754075608950194</v>
+      </c>
+      <c r="E55">
+        <v>0.05220388968456331</v>
+      </c>
+      <c r="F55">
+        <v>0.05511675023840067</v>
+      </c>
+      <c r="G55">
+        <v>0.05360138497683187</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>-0.1435585015807625</v>
+        <v>0.1476936020872074</v>
       </c>
       <c r="C56">
-        <v>0.09416087858303353</v>
+        <v>0.1056594912488488</v>
       </c>
       <c r="D56">
-        <v>0.04355252365796013</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>-0.04622678379737458</v>
+      </c>
+      <c r="E56">
+        <v>0.05312849148218059</v>
+      </c>
+      <c r="F56">
+        <v>0.04153795326525556</v>
+      </c>
+      <c r="G56">
+        <v>0.05908969549771774</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B57">
-        <v>-0.0007379453091308303</v>
+        <v>0.000242040635970314</v>
       </c>
       <c r="C57">
-        <v>-0.00224211815711715</v>
+        <v>-0.001236903710331421</v>
       </c>
       <c r="D57">
-        <v>-0.01262873613261005</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
+        <v>0.01053711139313651</v>
+      </c>
+      <c r="E57">
+        <v>0.006583647210863751</v>
+      </c>
+      <c r="F57">
+        <v>0.007739023057921569</v>
+      </c>
+      <c r="G57">
+        <v>0.0001035126118146968</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>-0.0477817303442628</v>
+        <v>0.02900803309491496</v>
       </c>
       <c r="C58">
-        <v>0.04017160468863017</v>
+        <v>0.03258219718699997</v>
       </c>
       <c r="D58">
-        <v>-0.6436334098792594</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>0.4140483994091607</v>
+      </c>
+      <c r="E58">
+        <v>0.6206114612759512</v>
+      </c>
+      <c r="F58">
+        <v>-0.579317663572564</v>
+      </c>
+      <c r="G58">
+        <v>-0.09575590009761753</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>-0.1333484866659889</v>
+        <v>0.1432322996851454</v>
       </c>
       <c r="C59">
-        <v>-0.1964131133249371</v>
+        <v>-0.1873946331658364</v>
       </c>
       <c r="D59">
-        <v>-0.02111392743204853</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.0278708332668867</v>
+      </c>
+      <c r="E59">
+        <v>0.02549916536515058</v>
+      </c>
+      <c r="F59">
+        <v>0.02037395816804239</v>
+      </c>
+      <c r="G59">
+        <v>-0.02916443753364262</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>-0.3096938571781671</v>
+        <v>0.28284059381787</v>
       </c>
       <c r="C60">
-        <v>0.09923158270730914</v>
+        <v>0.09799772246204162</v>
       </c>
       <c r="D60">
-        <v>-0.1529896791414876</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>0.2228767764275802</v>
+      </c>
+      <c r="E60">
+        <v>-0.2774931442023905</v>
+      </c>
+      <c r="F60">
+        <v>-0.08087478601928512</v>
+      </c>
+      <c r="G60">
+        <v>0.05037279027410439</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>-0.04204919922007663</v>
+        <v>0.04088707103380932</v>
       </c>
       <c r="C61">
-        <v>0.06647803209422186</v>
+        <v>0.06285893478691142</v>
       </c>
       <c r="D61">
-        <v>-0.01711183560549403</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>0.04654896291669865</v>
+      </c>
+      <c r="E61">
+        <v>0.04307975333683746</v>
+      </c>
+      <c r="F61">
+        <v>0.07040328207802216</v>
+      </c>
+      <c r="G61">
+        <v>0.0140596038473944</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +2117,180 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>-0.0147987004571322</v>
+        <v>0.01457557394200302</v>
       </c>
       <c r="C63">
-        <v>0.0330690826092176</v>
+        <v>0.03183143163326319</v>
       </c>
       <c r="D63">
-        <v>0.01082709333608523</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>0.02021193434093654</v>
+      </c>
+      <c r="E63">
+        <v>0.05467845793301029</v>
+      </c>
+      <c r="F63">
+        <v>0.06317184047891054</v>
+      </c>
+      <c r="G63">
+        <v>0.03014225206950241</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>-0.04857151150339119</v>
+        <v>0.05624848812111896</v>
       </c>
       <c r="C64">
-        <v>0.04574677249321778</v>
+        <v>0.05580195007336859</v>
       </c>
       <c r="D64">
-        <v>-0.005165456940089643</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>0.009716218774537258</v>
+      </c>
+      <c r="E64">
+        <v>0.03710045486684474</v>
+      </c>
+      <c r="F64">
+        <v>0.08262391335497959</v>
+      </c>
+      <c r="G64">
+        <v>0.01346911492311756</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>-0.08634152118107731</v>
+        <v>0.06937543987773014</v>
       </c>
       <c r="C65">
-        <v>0.03496855402066919</v>
+        <v>0.03265332432821812</v>
       </c>
       <c r="D65">
-        <v>-0.05154313097109869</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.08588464727463575</v>
+      </c>
+      <c r="E65">
+        <v>0.04024829589515837</v>
+      </c>
+      <c r="F65">
+        <v>0.000985299314095098</v>
+      </c>
+      <c r="G65">
+        <v>0.0008839430134336755</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>-0.06211167397230198</v>
+        <v>0.05258764878108858</v>
       </c>
       <c r="C66">
-        <v>0.09915489079268543</v>
+        <v>0.08894526503425129</v>
       </c>
       <c r="D66">
-        <v>-0.04631460559992018</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>0.08267516328557069</v>
+      </c>
+      <c r="E66">
+        <v>0.04531398627640965</v>
+      </c>
+      <c r="F66">
+        <v>0.0821112021609396</v>
+      </c>
+      <c r="G66">
+        <v>0.005467872088311976</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>-0.05276097022954235</v>
+        <v>0.04642359487277908</v>
       </c>
       <c r="C67">
-        <v>0.03392722415171011</v>
+        <v>0.03014818085696426</v>
       </c>
       <c r="D67">
-        <v>0.008252332052364373</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>0.0143064558014455</v>
+      </c>
+      <c r="E67">
+        <v>0.02545588198395972</v>
+      </c>
+      <c r="F67">
+        <v>0.04738099382635047</v>
+      </c>
+      <c r="G67">
+        <v>0.00965190496533431</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>-0.1296011720360998</v>
+        <v>0.1502678510116833</v>
       </c>
       <c r="C68">
-        <v>-0.2832008378471291</v>
+        <v>-0.2499529532803316</v>
       </c>
       <c r="D68">
-        <v>0.010672418146932</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>-0.01721060574733838</v>
+      </c>
+      <c r="E68">
+        <v>0.04395040860627192</v>
+      </c>
+      <c r="F68">
+        <v>0.01338160720528795</v>
+      </c>
+      <c r="G68">
+        <v>0.0108273173537886</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>-0.08858401236946481</v>
+        <v>0.08720814092858105</v>
       </c>
       <c r="C69">
-        <v>0.06778700558992325</v>
+        <v>0.08684213941710064</v>
       </c>
       <c r="D69">
-        <v>0.03774951817818645</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.007783814576207083</v>
+      </c>
+      <c r="E69">
+        <v>0.05302995071466253</v>
+      </c>
+      <c r="F69">
+        <v>0.0870608551169207</v>
+      </c>
+      <c r="G69">
+        <v>0.03218250341380343</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,360 +2301,594 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>-0.1190041519147361</v>
+        <v>0.1421312408172887</v>
       </c>
       <c r="C71">
-        <v>-0.2475587171584946</v>
+        <v>-0.2368187514939996</v>
       </c>
       <c r="D71">
-        <v>-0.02419262084435217</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.01244733805324275</v>
+      </c>
+      <c r="E71">
+        <v>0.06789390009168633</v>
+      </c>
+      <c r="F71">
+        <v>0.0493189645727906</v>
+      </c>
+      <c r="G71">
+        <v>0.03810519048498186</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>-0.08913028049063772</v>
+        <v>0.09867912888370031</v>
       </c>
       <c r="C72">
-        <v>0.05313690460743414</v>
+        <v>0.05607934142891211</v>
       </c>
       <c r="D72">
-        <v>-0.006385865389019232</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.02972163324280159</v>
+      </c>
+      <c r="E72">
+        <v>0.02072980899022474</v>
+      </c>
+      <c r="F72">
+        <v>0.06690832071908856</v>
+      </c>
+      <c r="G72">
+        <v>0.03865706668139846</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>-0.4074109809111156</v>
+        <v>0.346924879682535</v>
       </c>
       <c r="C73">
-        <v>0.06006035109943816</v>
+        <v>0.07201818543044461</v>
       </c>
       <c r="D73">
-        <v>-0.3827474549279432</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>0.4610829944438818</v>
+      </c>
+      <c r="E73">
+        <v>-0.4883758623579737</v>
+      </c>
+      <c r="F73">
+        <v>-0.2267562454865768</v>
+      </c>
+      <c r="G73">
+        <v>0.1005165977956783</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>-0.1057441667067265</v>
+        <v>0.1106760224299917</v>
       </c>
       <c r="C74">
-        <v>0.09632765857846864</v>
+        <v>0.0962866159883061</v>
       </c>
       <c r="D74">
-        <v>0.02295165606527375</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.02990219697665955</v>
+      </c>
+      <c r="E74">
+        <v>0.06923092237042711</v>
+      </c>
+      <c r="F74">
+        <v>0.04006048098737075</v>
+      </c>
+      <c r="G74">
+        <v>0.07254509543645117</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>-0.2522973599966346</v>
+        <v>0.2582438601142488</v>
       </c>
       <c r="C75">
-        <v>0.1031971324643351</v>
+        <v>0.1288201091536424</v>
       </c>
       <c r="D75">
-        <v>0.09372835559597423</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.1258780402163226</v>
+      </c>
+      <c r="E75">
+        <v>0.06862955570610851</v>
+      </c>
+      <c r="F75">
+        <v>0.01985780133140436</v>
+      </c>
+      <c r="G75">
+        <v>0.0749599798862683</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>-0.1114208656730683</v>
+        <v>0.1269473250081068</v>
       </c>
       <c r="C76">
-        <v>0.08988244460183813</v>
+        <v>0.09895995474892436</v>
       </c>
       <c r="D76">
-        <v>0.05068458795983442</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>-0.05700938884082494</v>
+      </c>
+      <c r="E76">
+        <v>0.08188586613445724</v>
+      </c>
+      <c r="F76">
+        <v>0.06213630501407073</v>
+      </c>
+      <c r="G76">
+        <v>0.05738339850805909</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>-0.07701377053289836</v>
+        <v>0.06115132001890211</v>
       </c>
       <c r="C77">
-        <v>0.06393424148035205</v>
+        <v>0.07365521119395364</v>
       </c>
       <c r="D77">
-        <v>-0.05226571769355987</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>0.06524819832188</v>
+      </c>
+      <c r="E77">
+        <v>0.09514159577188724</v>
+      </c>
+      <c r="F77">
+        <v>0.1096820613971575</v>
+      </c>
+      <c r="G77">
+        <v>-0.1412164892084968</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>-0.04774308742678405</v>
+        <v>0.04437840148481065</v>
       </c>
       <c r="C78">
-        <v>0.05371988843497171</v>
+        <v>0.05946553996863168</v>
       </c>
       <c r="D78">
-        <v>-0.02810637985638313</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>0.06647503237959702</v>
+      </c>
+      <c r="E78">
+        <v>0.0484297960471211</v>
+      </c>
+      <c r="F78">
+        <v>0.08349356607238381</v>
+      </c>
+      <c r="G78">
+        <v>0.009356680238910229</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B79">
-        <v>0</v>
+        <v>0.02788651521984972</v>
       </c>
       <c r="C79">
-        <v>0</v>
+        <v>0.04196141784980807</v>
       </c>
       <c r="D79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.06068279269193971</v>
+      </c>
+      <c r="E79">
+        <v>0.06607951878393693</v>
+      </c>
+      <c r="F79">
+        <v>0.03013204527588288</v>
+      </c>
+      <c r="G79">
+        <v>0.07933958164701972</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>-0.04349667201443209</v>
+        <v>0.03332203979847775</v>
       </c>
       <c r="C80">
-        <v>0.05800950887033975</v>
+        <v>0.05566543315648147</v>
       </c>
       <c r="D80">
-        <v>-0.02905568887227331</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>0.04347392455642897</v>
+      </c>
+      <c r="E80">
+        <v>0.01620178100877476</v>
+      </c>
+      <c r="F80">
+        <v>0.03144612873277096</v>
+      </c>
+      <c r="G80">
+        <v>-0.04626174532073615</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>-0.1411292733885116</v>
+        <v>0.1409628091730292</v>
       </c>
       <c r="C81">
-        <v>0.07946642511531446</v>
+        <v>0.09515936072502887</v>
       </c>
       <c r="D81">
-        <v>0.07674369108143136</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.09952167297726021</v>
+      </c>
+      <c r="E81">
+        <v>0.08558636915838548</v>
+      </c>
+      <c r="F81">
+        <v>0.006029658366819558</v>
+      </c>
+      <c r="G81">
+        <v>0.05136802187839286</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>-0.1627656145026985</v>
+        <v>0.2050865919644402</v>
       </c>
       <c r="C82">
-        <v>0.07405206512342355</v>
+        <v>0.1401497973150051</v>
       </c>
       <c r="D82">
-        <v>0.1571635298298753</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.2309175772597626</v>
+      </c>
+      <c r="E82">
+        <v>0.01099223181532363</v>
+      </c>
+      <c r="F82">
+        <v>0.1063791426843167</v>
+      </c>
+      <c r="G82">
+        <v>0.05725901340252035</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>-0.03950186684748134</v>
+        <v>0.02780566025633016</v>
       </c>
       <c r="C83">
-        <v>0.03052407528508875</v>
+        <v>0.04262832553327664</v>
       </c>
       <c r="D83">
-        <v>-0.03377476514386214</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>0.03314358204552392</v>
+      </c>
+      <c r="E83">
+        <v>0.02072611772204108</v>
+      </c>
+      <c r="F83">
+        <v>0.04109563463299988</v>
+      </c>
+      <c r="G83">
+        <v>-0.01938403548087686</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B84">
-        <v>0</v>
+        <v>0.0001803533450919103</v>
       </c>
       <c r="C84">
-        <v>0</v>
+        <v>-0.000878201355937316</v>
       </c>
       <c r="D84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>0.001126413424258947</v>
+      </c>
+      <c r="E84">
+        <v>0.0008006063388707988</v>
+      </c>
+      <c r="F84">
+        <v>0.001252018837859352</v>
+      </c>
+      <c r="G84">
+        <v>-0.0002374527970575347</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>-0.2190409829914438</v>
+        <v>0.2037381690185275</v>
       </c>
       <c r="C85">
-        <v>0.1025244748166724</v>
+        <v>0.1160777074089339</v>
       </c>
       <c r="D85">
-        <v>0.1196090467657599</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.09610688231628926</v>
+      </c>
+      <c r="E85">
+        <v>0.0002934139772547683</v>
+      </c>
+      <c r="F85">
+        <v>-0.007311715180730771</v>
+      </c>
+      <c r="G85">
+        <v>0.1274606278404262</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>-0.009701327942910105</v>
+        <v>0.01050989888777554</v>
       </c>
       <c r="C86">
-        <v>0.04481964399335198</v>
+        <v>0.03100663659348913</v>
       </c>
       <c r="D86">
-        <v>-0.04313464204524351</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>0.06563998738319325</v>
+      </c>
+      <c r="E86">
+        <v>0.06964102034084077</v>
+      </c>
+      <c r="F86">
+        <v>0.1215775824082072</v>
+      </c>
+      <c r="G86">
+        <v>-0.01202126449737265</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>-0.02349402095186647</v>
+        <v>0.0221622672783669</v>
       </c>
       <c r="C87">
-        <v>0.01271852800265599</v>
+        <v>0.01900280256242057</v>
       </c>
       <c r="D87">
-        <v>-0.08796004702682451</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>0.09091815571892091</v>
+      </c>
+      <c r="E87">
+        <v>0.1154864257187288</v>
+      </c>
+      <c r="F87">
+        <v>0.06078876574669941</v>
+      </c>
+      <c r="G87">
+        <v>-0.04244695949161217</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>-0.1054991223407382</v>
+        <v>0.09334144351954014</v>
       </c>
       <c r="C88">
-        <v>0.07125957714854421</v>
+        <v>0.06325797762525454</v>
       </c>
       <c r="D88">
-        <v>0.02330332090829697</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>0.008341883245436197</v>
+      </c>
+      <c r="E88">
+        <v>0.04836611974776396</v>
+      </c>
+      <c r="F88">
+        <v>0.06656364670938589</v>
+      </c>
+      <c r="G88">
+        <v>-0.02601698648162929</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>-0.1874190533319501</v>
+        <v>0.218335901877192</v>
       </c>
       <c r="C89">
-        <v>-0.3750727161586773</v>
+        <v>-0.3799402536629476</v>
       </c>
       <c r="D89">
-        <v>0.01621471602151648</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>-0.008135332793708094</v>
+      </c>
+      <c r="E89">
+        <v>0.06723691098915067</v>
+      </c>
+      <c r="F89">
+        <v>0.0735892919023</v>
+      </c>
+      <c r="G89">
+        <v>-0.06237656496335114</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>-0.1786025935304288</v>
+        <v>0.1979156921199389</v>
       </c>
       <c r="C90">
-        <v>-0.333293673298304</v>
+        <v>-0.3125325303798711</v>
       </c>
       <c r="D90">
-        <v>0.0186571764541089</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>-0.01331574021220391</v>
+      </c>
+      <c r="E90">
+        <v>0.07567186594232679</v>
+      </c>
+      <c r="F90">
+        <v>0.03596718691598929</v>
+      </c>
+      <c r="G90">
+        <v>-0.0136432404815707</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>-0.1885562643399673</v>
+        <v>0.1864587702674876</v>
       </c>
       <c r="C91">
-        <v>0.1235360009353578</v>
+        <v>0.1399290501811353</v>
       </c>
       <c r="D91">
-        <v>0.09408346002861888</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>-0.105905010935208</v>
+      </c>
+      <c r="E91">
+        <v>0.06539390729654029</v>
+      </c>
+      <c r="F91">
+        <v>0.03246483188480985</v>
+      </c>
+      <c r="G91">
+        <v>0.0579426094719564</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>-0.1641267112230109</v>
+        <v>0.1790450096624745</v>
       </c>
       <c r="C92">
-        <v>-0.2824029620003933</v>
+        <v>-0.2865850821905926</v>
       </c>
       <c r="D92">
-        <v>0.003472467998402106</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>-0.008419190866478913</v>
+      </c>
+      <c r="E92">
+        <v>0.07468434937709731</v>
+      </c>
+      <c r="F92">
+        <v>0.08226178376453046</v>
+      </c>
+      <c r="G92">
+        <v>-0.007708193820548368</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>-0.2029229558456064</v>
+        <v>0.222134960276697</v>
       </c>
       <c r="C93">
-        <v>-0.3357353219365088</v>
+        <v>-0.3192129770791616</v>
       </c>
       <c r="D93">
-        <v>0.01619617351032775</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>-0.005676840780279831</v>
+      </c>
+      <c r="E93">
+        <v>0.05087318709833572</v>
+      </c>
+      <c r="F93">
+        <v>0.038115868723816</v>
+      </c>
+      <c r="G93">
+        <v>0.02825633225708046</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>-0.3439019061305585</v>
+        <v>0.3461708750073677</v>
       </c>
       <c r="C94">
-        <v>0.147090674978636</v>
+        <v>0.1812234811000409</v>
       </c>
       <c r="D94">
-        <v>0.490621739999981</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.5057372324757812</v>
+      </c>
+      <c r="E94">
+        <v>0.01910611683058053</v>
+      </c>
+      <c r="F94">
+        <v>-0.4470312697311463</v>
+      </c>
+      <c r="G94">
+        <v>-0.3450103215663428</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>-0.1129983988076664</v>
+        <v>0.08504324528164564</v>
       </c>
       <c r="C95">
-        <v>0.07642424543843299</v>
+        <v>0.06635874828941511</v>
       </c>
       <c r="D95">
-        <v>-0.1322048625043651</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>0.168350359219252</v>
+      </c>
+      <c r="E95">
+        <v>-0.1056834275664875</v>
+      </c>
+      <c r="F95">
+        <v>0.262456393972002</v>
+      </c>
+      <c r="G95">
+        <v>-0.8540915990204078</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,10 +2899,19 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2049,24 +2922,42 @@
       <c r="D97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>-0.1937673859955793</v>
+        <v>0.1868765722079908</v>
       </c>
       <c r="C98">
-        <v>0.0203949886165525</v>
+        <v>0.03999420694697176</v>
       </c>
       <c r="D98">
-        <v>-0.144914823807613</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>0.1834476321177009</v>
+      </c>
+      <c r="E98">
+        <v>-0.1548261393694713</v>
+      </c>
+      <c r="F98">
+        <v>-0.03247060617816273</v>
+      </c>
+      <c r="G98">
+        <v>0.09852360413981434</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +2968,19 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +2991,65 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>-0.006866904208665707</v>
+        <v>0.006053122367652489</v>
       </c>
       <c r="C101">
-        <v>0.03194707289808342</v>
+        <v>0.02974206183962221</v>
       </c>
       <c r="D101">
-        <v>0.01639643182656658</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>0.01925339832952978</v>
+      </c>
+      <c r="E101">
+        <v>0.04353571434694764</v>
+      </c>
+      <c r="F101">
+        <v>0.08134441054127026</v>
+      </c>
+      <c r="G101">
+        <v>0.01008345169393768</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B102">
-        <v>-0.1220219206677588</v>
+        <v>0.1251288656270514</v>
       </c>
       <c r="C102">
-        <v>0.0722788440744139</v>
+        <v>0.09843690607842026</v>
       </c>
       <c r="D102">
-        <v>0.02862181102624139</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>-0.0453110886311659</v>
+      </c>
+      <c r="E102">
+        <v>-0.001489701664191944</v>
+      </c>
+      <c r="F102">
+        <v>0.04722518310272257</v>
+      </c>
+      <c r="G102">
+        <v>0.01918434643878467</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3060,19 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3081,15 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
         <v>0</v>
       </c>
     </row>
